--- a/Excel-XLSX/UN-KIR.xlsx
+++ b/Excel-XLSX/UN-KIR.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>eFFnt5</t>
+    <t>2YvVN7</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-KIR.xlsx
+++ b/Excel-XLSX/UN-KIR.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2YvVN7</t>
+    <t>2bVHvA</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-KIR.xlsx
+++ b/Excel-XLSX/UN-KIR.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2bVHvA</t>
+    <t>hVIHL6</t>
   </si>
   <si>
     <t>0</t>
